--- a/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.860948601930454</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.04273821401933227</v>
+        <v>0.04273821401933192</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.3581427516986707</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.599316340437845</v>
+        <v>-1.573839283746661</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5344197744644105</v>
+        <v>-0.5682038993165659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.587083683831345</v>
+        <v>-1.587988650678227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.27598032242793</v>
+        <v>-2.46435778315572</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4778438229982808</v>
+        <v>-0.2042605987365944</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.960377257505884</v>
+        <v>-1.982266545891554</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.540517944251706</v>
+        <v>-1.399188682960314</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09896853071563064</v>
+        <v>0.1210892228286995</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.401207141752716</v>
+        <v>-1.448158547776042</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.318645758681228</v>
+        <v>1.321464325011544</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.174371214548618</v>
+        <v>2.944425694165363</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.930986717262007</v>
+        <v>2.993889943122132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.182993375617423</v>
+        <v>1.09976068847694</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.278855425791097</v>
+        <v>4.678771530985837</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.835757118767718</v>
+        <v>3.117430794749456</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7498551484150484</v>
+        <v>0.8249250852217789</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.929714357586994</v>
+        <v>3.258962302297741</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.868245405151838</v>
+        <v>1.980278715267505</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.8520853115366613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01956883944532724</v>
+        <v>0.01956883944532709</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2016166559529596</v>
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.76991464343049</v>
+        <v>-0.7514200810381657</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3605930912685535</v>
+        <v>-0.3426583746345623</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.7406999747560927</v>
+        <v>-0.8019355263139939</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1906455881985771</v>
+        <v>-0.1090655240248997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7504236679113483</v>
+        <v>-0.7739940572617021</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6348083660115236</v>
+        <v>-0.6113358847989734</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.005220376922361887</v>
+        <v>-0.0120936436415778</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6683559231451871</v>
+        <v>-0.672678055605359</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.344655857291788</v>
+        <v>2.093313270831097</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.914178363781953</v>
+        <v>4.08751277310376</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.971898852080635</v>
+        <v>0.8025249583877596</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.926017756061083</v>
+        <v>3.63628459349824</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.899552626743227</v>
+        <v>2.597942235424741</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6047640999362904</v>
+        <v>0.744141064329515</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.098572077475769</v>
+        <v>2.611876247239333</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.592835746247842</v>
+        <v>1.520551903474993</v>
       </c>
     </row>
     <row r="10">
@@ -874,7 +874,7 @@
         <v>0.7574573630643171</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.91038953321875</v>
+        <v>0.9103895332187504</v>
       </c>
     </row>
     <row r="11">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.017791092160069</v>
+        <v>-2.312026924721235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.225539431007637</v>
+        <v>-1.320032088674492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.448961762351819</v>
+        <v>-1.542806352941698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9569396752299748</v>
+        <v>-0.9165136801848788</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5508849897345623</v>
+        <v>-0.4941748760317092</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.64940362915443</v>
+        <v>-0.6933400049223316</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.101813973092654</v>
+        <v>-1.120161588161359</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4841884808447993</v>
+        <v>-0.4459111243994334</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5392192583510518</v>
+        <v>-0.4249201681867983</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4914513199417567</v>
+        <v>0.4344400982562902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.019254491672375</v>
+        <v>2.029614790240851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.169736150202669</v>
+        <v>3.07271071329027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.942052956635119</v>
+        <v>2.715971624622305</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.180362651967321</v>
+        <v>3.444289856343014</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.076106938586047</v>
+        <v>3.876419599491242</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.224395977324263</v>
+        <v>1.096569756752174</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.983060413180568</v>
+        <v>2.035639256611907</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.659965588154097</v>
+        <v>2.765663084477392</v>
       </c>
     </row>
     <row r="13">
@@ -970,7 +970,7 @@
         <v>0.6193713102665647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6551971510211111</v>
+        <v>0.6551971510211108</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.0167784152006311</v>
@@ -979,7 +979,7 @@
         <v>0.358468156010935</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4308436000996013</v>
+        <v>0.4308436000996015</v>
       </c>
     </row>
     <row r="14">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7291619711858623</v>
+        <v>-0.7464807976041885</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4820440551036761</v>
+        <v>-0.5139094154822426</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5800295037616575</v>
+        <v>-0.6204744035298672</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3470177597314509</v>
+        <v>-0.3180953113271018</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2352109092266042</v>
+        <v>-0.2440195432322763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2572657761706356</v>
+        <v>-0.2925782321009172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.417737096153121</v>
+        <v>-0.4426458982474225</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1783287739897376</v>
+        <v>-0.1900550948397261</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2382183910665954</v>
+        <v>-0.1822482120832909</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4170021165849325</v>
+        <v>0.3434694972911294</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.406643701254411</v>
+        <v>1.456320440914999</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.158303953267451</v>
+        <v>1.920385674068589</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.264185816687775</v>
+        <v>2.150602106310723</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.324548911452493</v>
+        <v>2.498599272134816</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.060711644799107</v>
+        <v>2.67529238881946</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7978044817451732</v>
+        <v>0.6655820620307257</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.274732460314858</v>
+        <v>1.244402614096371</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.524822049178737</v>
+        <v>1.712259213214789</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>3.262523152662188</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.63561693626645</v>
+        <v>-1.635616936266451</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.624011196991469</v>
@@ -1088,7 +1088,7 @@
         <v>1.792163414313015</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.9863864463235967</v>
+        <v>-0.9863864463235974</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.11188583743246</v>
+        <v>-0.9690360337302995</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.731504259070196</v>
+        <v>-1.706104418406692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.368996721354968</v>
+        <v>-2.32376469749933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.333580882648866</v>
+        <v>-2.423207780170566</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3232690005244563</v>
+        <v>0.6572306569708699</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.685811657970549</v>
+        <v>-3.916626819122529</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.062910318927429</v>
+        <v>-1.068687666967541</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1960720454357396</v>
+        <v>0.06711126592320858</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.627707007172263</v>
+        <v>-2.534349577888555</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.468616888291484</v>
+        <v>3.535938559766337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.476642128335366</v>
+        <v>2.411453531203998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.885537606697996</v>
+        <v>2.141488142840888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.38842084055186</v>
+        <v>2.356206463472483</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.54957849482625</v>
+        <v>5.905637838412591</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2600598500778853</v>
+        <v>0.4278027890854917</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.360115274789207</v>
+        <v>2.295804149222778</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.620923848639719</v>
+        <v>3.510235381953327</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5373212556261621</v>
+        <v>0.6786461075348033</v>
       </c>
     </row>
     <row r="19">
@@ -1184,7 +1184,7 @@
         <v>0.6948121981687091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3483336502675641</v>
+        <v>-0.3483336502675642</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1535220422662284</v>
@@ -1193,7 +1193,7 @@
         <v>0.440916106580556</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2426752315237642</v>
+        <v>-0.2426752315237644</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.258548294148198</v>
+        <v>-0.250318500729296</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3950943777513726</v>
+        <v>-0.3817969753374154</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5181078719029381</v>
+        <v>-0.5175271823194748</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3990003139793435</v>
+        <v>-0.4182644159632506</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04400028930935151</v>
+        <v>0.09193548789545788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6200762716773129</v>
+        <v>-0.6315534027704148</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2307440178162939</v>
+        <v>-0.2236337867374302</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03083644895633971</v>
+        <v>0.01054579650882951</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5254641657535915</v>
+        <v>-0.5124607754749742</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.458829491919021</v>
+        <v>1.492698785343632</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.091835203608875</v>
+        <v>1.071093739150957</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8539272238605564</v>
+        <v>1.030821099851077</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6990253422402695</v>
+        <v>0.699181797074369</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.645373169738429</v>
+        <v>1.607617492445032</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.091157397313162</v>
+        <v>0.1652361757101137</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7303136264358854</v>
+        <v>0.6841458412939918</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.089985394802355</v>
+        <v>1.090884591364773</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1906991759673939</v>
+        <v>0.2201114419465934</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1284,7 @@
         <v>3.028512695040486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.129081422828761</v>
+        <v>2.12908142282876</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.2014080969567136</v>
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.119790379198653</v>
+        <v>-1.105980352125185</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.081840640467574</v>
+        <v>0.8381846608644947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01851786859195444</v>
+        <v>0.06433871835335701</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.974614208989261</v>
+        <v>-2.737669304567944</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.373024675133633</v>
+        <v>3.655622062166135</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.739300788463383</v>
+        <v>-2.580524956922527</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.275024604407894</v>
+        <v>-1.465523284912673</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.674195891954024</v>
+        <v>2.872930075261156</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.6858037651347418</v>
+        <v>-0.6422874149929703</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.924796573496271</v>
+        <v>3.114859281135919</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.376730122684282</v>
+        <v>5.249869112487429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.092755060269853</v>
+        <v>4.229088835088997</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.451718987251224</v>
+        <v>2.344160805302324</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.28994057976912</v>
+        <v>10.12110295144737</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.971239906881558</v>
+        <v>2.226571026975563</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.160771975689372</v>
+        <v>2.015546702851075</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.901063109271802</v>
+        <v>6.854145340031677</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.542269278676345</v>
+        <v>2.564977212101488</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
         <v>1.347838744818001</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9475471036526325</v>
+        <v>0.9475471036526322</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.0361655287200967</v>
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4197859720300417</v>
+        <v>-0.3955381265375869</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1833174127238292</v>
+        <v>0.1674220677483803</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04179978493974507</v>
+        <v>-0.04891397164335124</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.417501881972114</v>
+        <v>-0.3950538746198722</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4458472679919747</v>
+        <v>0.5214036579449514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3823464156284345</v>
+        <v>-0.3741240925020289</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.263666316298528</v>
+        <v>-0.3081063108928111</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5643899480267679</v>
+        <v>0.5773875358701582</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1680930119303481</v>
+        <v>-0.1246625596729146</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.316892086466287</v>
+        <v>2.391149872238561</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.759415925402686</v>
+        <v>3.635289300543754</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.084305586780276</v>
+        <v>3.397490381184781</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.600315524680654</v>
+        <v>0.5960493240655104</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.511026486283088</v>
+        <v>2.514668734062304</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.507740909781335</v>
+        <v>0.5611273793180641</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7353760738862857</v>
+        <v>0.6378517458937512</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.275710804844907</v>
+        <v>2.173821924888402</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7831433159962327</v>
+        <v>0.887301863092156</v>
       </c>
     </row>
     <row r="28">
@@ -1507,7 +1507,7 @@
         <v>13.15221956819802</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.9921679612575042</v>
+        <v>0.9921679612575056</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.3876067665721551</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.592541850532794</v>
+        <v>-3.284968591362076</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1698456322364312</v>
+        <v>0.1533114805291796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.645635702942657</v>
+        <v>-2.562518784704265</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.399869913179469</v>
+        <v>-3.299823814353748</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>9.169121519954762</v>
+        <v>8.773897458692643</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.880600714597209</v>
+        <v>-1.897139599826307</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.679043834678447</v>
+        <v>-2.27538187256321</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.744810562329576</v>
+        <v>5.293448567895589</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.335657330755688</v>
+        <v>-1.551619200892845</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.67295524440087</v>
+        <v>1.889393262016564</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.134562810241012</v>
+        <v>6.398766483883805</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.587392381128645</v>
+        <v>2.284058052114647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.018565655274604</v>
+        <v>3.167942408874337</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.6686552753443</v>
+        <v>17.12813107334839</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.416451432708907</v>
+        <v>3.659184469025623</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.526112588684252</v>
+        <v>1.756742340885105</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.09548319357525</v>
+        <v>11.01367361041307</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.315132923460371</v>
+        <v>2.137303827751834</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1612,7 @@
         <v>2.343770742602752</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1768077416351835</v>
+        <v>0.1768077416351837</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.07987241652149545</v>
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.641951895028909</v>
+        <v>-0.6094554240170986</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07247345778864027</v>
+        <v>-0.02706028109946225</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4505786744486073</v>
+        <v>-0.4594126863636346</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4389337198126737</v>
+        <v>-0.4670253916187789</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>1.12313781299845</v>
+        <v>1.111518385073227</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2553745213255427</v>
+        <v>-0.2681762553982269</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4256677531345156</v>
+        <v>-0.389202219535006</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.8915611153229244</v>
+        <v>0.8859238813771104</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2253044786175862</v>
+        <v>-0.2572043065603464</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6826727404208118</v>
+        <v>0.8453087783155664</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.163732639801388</v>
+        <v>2.314044647368239</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9864018078616048</v>
+        <v>0.8671948313879979</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7633162484886926</v>
+        <v>0.8671110676942974</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.370138073667948</v>
+        <v>4.185486915214467</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8583258730254929</v>
+        <v>0.9805143881541063</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4008390891888416</v>
+        <v>0.4677031155850599</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.873743519721071</v>
+        <v>2.895917447990784</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6839360095591951</v>
+        <v>0.5782536341648663</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1721,7 @@
         <v>9.342379537362792</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.5850390687936469</v>
+        <v>-0.5850390687936482</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.321399538461353</v>
@@ -1730,7 +1730,7 @@
         <v>4.871027208902959</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.7111871836892978</v>
+        <v>-0.711187183689297</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.124218588991259</v>
+        <v>-3.026495132803556</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.16389093580873</v>
+        <v>-3.045162255088233</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.835478214875706</v>
+        <v>-3.462210042049956</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.613399084520964</v>
+        <v>-1.917081067637537</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.602152677954682</v>
+        <v>4.933011845499046</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.952175246307268</v>
+        <v>-3.886353122084865</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.187828355030449</v>
+        <v>-1.252620137838303</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.901391305663056</v>
+        <v>1.976058073285732</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.146021518835407</v>
+        <v>-2.869274023590263</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.699000865800341</v>
+        <v>3.228071853241601</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.816400431001889</v>
+        <v>2.636091226543869</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.641612902126727</v>
+        <v>1.914857055656201</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.265690789335307</v>
+        <v>6.166478287493534</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>14.28693583160096</v>
+        <v>14.40419669559303</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.921611155949197</v>
+        <v>2.272369113334918</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.086243153531662</v>
+        <v>4.065817151045719</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.86551463959194</v>
+        <v>7.941252535110031</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.237067380527828</v>
+        <v>1.311420048183102</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1826,7 @@
         <v>1.317844351353088</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.08252613041968287</v>
+        <v>-0.08252613041968308</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2290018860426739</v>
@@ -1835,7 +1835,7 @@
         <v>0.8441613496420817</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1232505397904602</v>
+        <v>-0.1232505397904601</v>
       </c>
     </row>
     <row r="38">
@@ -1846,31 +1846,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5462233038313995</v>
+        <v>-0.5652824399775498</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5387981483391002</v>
+        <v>-0.5463762259938424</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6178757795573662</v>
+        <v>-0.5812089730654766</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1971124040671065</v>
+        <v>-0.2213989925682836</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4512363472527792</v>
+        <v>0.4509610033878723</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4159029133300571</v>
+        <v>-0.4093156522103114</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1754600246900505</v>
+        <v>-0.1785738808119992</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2292574734922678</v>
+        <v>0.263013962463822</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.418813961502313</v>
+        <v>-0.3976809277916742</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1881,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.342704752531787</v>
+        <v>1.19970755755094</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.097773475937087</v>
+        <v>0.9413097194909573</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.628314787023732</v>
+        <v>0.8569824813503043</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.170231446119701</v>
+        <v>1.198915380631637</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.578233762229857</v>
+        <v>2.734413614935702</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5789121907974434</v>
+        <v>0.4229454799652164</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.92475269052465</v>
+        <v>0.8944755026020397</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.680299014668811</v>
+        <v>1.754854219113446</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2920797846050209</v>
+        <v>0.3209877538359212</v>
       </c>
     </row>
     <row r="40">
@@ -1944,7 +1944,7 @@
         <v>8.029103464169363</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.030110101927356</v>
+        <v>-0.03011010192735669</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.341614801816676</v>
+        <v>-2.391710154918967</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.231218377026339</v>
+        <v>1.230810010592821</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.865788690794276</v>
+        <v>-1.508989281643377</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.617168642378018</v>
+        <v>-4.441030556345411</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.927233409808094</v>
+        <v>5.055878076141964</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.904206877434529</v>
+        <v>-4.701142156340898</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.359579483128553</v>
+        <v>-2.480474555681143</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>4.77372436535518</v>
+        <v>4.39101919712259</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.522740278346399</v>
+        <v>-2.643084535307383</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.508429261457947</v>
+        <v>5.445865096869674</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.02016997493079</v>
+        <v>8.648964622631574</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.718392337427337</v>
+        <v>5.04847866313083</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.770019230266472</v>
+        <v>3.035688140844727</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.74044967312718</v>
+        <v>15.332077327827</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.558615339022042</v>
+        <v>1.812647776088371</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.221933164936324</v>
+        <v>2.96580359852703</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.5601989198069</v>
+        <v>11.37424365828509</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.137761727709936</v>
+        <v>2.362696194507654</v>
       </c>
     </row>
     <row r="43">
@@ -2049,7 +2049,7 @@
         <v>1.426100197390065</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.005348046951152306</v>
+        <v>-0.005348046951152429</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4914772633442486</v>
+        <v>-0.5263717594665029</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1070795477145874</v>
+        <v>0.1511057754955069</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3548237943856697</v>
+        <v>-0.329529415372337</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5108038890832501</v>
+        <v>-0.4967271353268953</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4881482373861706</v>
+        <v>0.5070875657493827</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4971137598856356</v>
+        <v>-0.4934242554637236</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3539519103740142</v>
+        <v>-0.3525396329446401</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.6591789733088215</v>
+        <v>0.6190997995660189</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3445581398223155</v>
+        <v>-0.353952561376702</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.843007013795228</v>
+        <v>2.806465520975559</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>5.260393365430955</v>
+        <v>4.854499892202422</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.56782433181617</v>
+        <v>2.854314232184735</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6006604338947872</v>
+        <v>0.6378064070880604</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.011952001613551</v>
+        <v>3.208471422254628</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3682266374238107</v>
+        <v>0.4204961333553545</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7432356724580003</v>
+        <v>0.7222693218040814</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.782465158477388</v>
+        <v>2.750091398892107</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5330273857941376</v>
+        <v>0.5962879308744288</v>
       </c>
     </row>
     <row r="46">
@@ -2149,7 +2149,7 @@
         <v>6.439844638545542</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.2239365874139788</v>
+        <v>0.2239365874139775</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.3255643813082416</v>
@@ -2158,7 +2158,7 @@
         <v>4.145326432242205</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.4587173325894429</v>
+        <v>0.4587173325894416</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.5445034809827685</v>
+        <v>-0.5072651337653249</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.8378823912030767</v>
+        <v>0.8215506143492892</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.1786283690903357</v>
+        <v>-0.3075234245018515</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.7367420265130833</v>
+        <v>-0.7925683417716503</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>5.045980216605399</v>
+        <v>5.018091394983762</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.6948383465770495</v>
+        <v>-0.7752794907054066</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.301845936772112</v>
+        <v>-0.3720695615525995</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>3.2977901535758</v>
+        <v>3.315538336417357</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.1801024535833978</v>
+        <v>-0.1552849054390638</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.125198831102298</v>
+        <v>1.174640226677911</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.719068378410102</v>
+        <v>2.673064391747525</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.557709117980042</v>
+        <v>1.510892738190347</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.397978241793708</v>
+        <v>1.326420166755643</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.730892199456756</v>
+        <v>7.724055505869273</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.25293669147138</v>
+        <v>1.138762504562614</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.002843280249343</v>
+        <v>0.9843989167078251</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.875319390145313</v>
+        <v>4.967597714158741</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.118122643859485</v>
+        <v>1.122158517493586</v>
       </c>
     </row>
     <row r="49">
@@ -2254,7 +2254,7 @@
         <v>1.404379461075024</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04883533091233899</v>
+        <v>0.04883533091233869</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.08812964443907916</v>
@@ -2263,7 +2263,7 @@
         <v>1.122131797985402</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.1241738892218521</v>
+        <v>0.1241738892218518</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1754298117269249</v>
+        <v>-0.1598136428050383</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2427559845169655</v>
+        <v>0.2513603549885375</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.0587804672053685</v>
+        <v>-0.1009974059301566</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1464221645009168</v>
+        <v>-0.1530526859361709</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.9586252732574376</v>
+        <v>0.9377436041475495</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1355086498911828</v>
+        <v>-0.1475146574880438</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.07573100607410137</v>
+        <v>-0.09325603739309407</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.8091715599091197</v>
+        <v>0.8078733445737201</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.04536009932744883</v>
+        <v>-0.04744896238022214</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4605201302229215</v>
+        <v>0.512412896483522</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.112977370502521</v>
+        <v>1.121538656825848</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6615614141437732</v>
+        <v>0.6099625413966759</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3336973488029777</v>
+        <v>0.3156747253382221</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.886547868400277</v>
+        <v>1.893541277352041</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3151961834632187</v>
+        <v>0.2839029186532638</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3009341614227947</v>
+        <v>0.290992171414341</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.43012229543678</v>
+        <v>1.471144686479782</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3342659829077765</v>
+        <v>0.3255567619020693</v>
       </c>
     </row>
     <row r="52">
